--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/建筑业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/建筑业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3501516</v>
+        <v>22934994.044592</v>
       </c>
       <c r="C2" t="n">
-        <v>2859250.93</v>
+        <v>16053633.9021954</v>
       </c>
       <c r="D2" t="n">
-        <v>857150</v>
+        <v>4491813.54694642</v>
       </c>
       <c r="E2" t="n">
-        <v>6216160</v>
+        <v>31538133.6945812</v>
       </c>
       <c r="F2" t="n">
-        <v>162139831.13</v>
+        <v>756823212.157716</v>
       </c>
       <c r="G2" t="n">
-        <v>39053238.7963012</v>
+        <v>151844890.653032</v>
       </c>
       <c r="H2" t="n">
-        <v>4498838.06179872</v>
+        <v>14751878.8619778</v>
       </c>
       <c r="I2" t="n">
-        <v>59430636.2677381</v>
+        <v>266609795.559901</v>
       </c>
       <c r="J2" t="n">
-        <v>221570467.397738</v>
+        <v>1023433007.71762</v>
       </c>
       <c r="K2" t="n">
-        <v>132635</v>
+        <v>10844130.1778455</v>
       </c>
       <c r="L2" t="n">
-        <v>5471364.00508375</v>
+        <v>42168531.9671957</v>
       </c>
       <c r="M2" t="n">
-        <v>10407195.4045545</v>
+        <v>57844494.0776953</v>
       </c>
       <c r="N2" t="n">
-        <v>6592903.8</v>
+        <v>4280138.97227985</v>
       </c>
       <c r="O2" t="n">
-        <v>14412425</v>
+        <v>35376183.7836465</v>
       </c>
       <c r="P2" t="n">
-        <v>21408658</v>
+        <v>77858188.9679212</v>
       </c>
       <c r="Q2" t="n">
-        <v>17254243.2</v>
+        <v>13179332.3539326</v>
       </c>
       <c r="R2" t="n">
-        <v>2426690</v>
+        <v>8001980.61739074</v>
       </c>
       <c r="S2" t="n">
-        <v>695655</v>
+        <v>4754123.86503302</v>
       </c>
       <c r="T2" t="n">
-        <v>15390851.2</v>
+        <v>110266584.560974</v>
       </c>
       <c r="U2" t="n">
-        <v>2136107</v>
+        <v>11139108.9020926</v>
       </c>
       <c r="V2" t="n">
-        <v>31417450</v>
+        <v>160693002.101407</v>
       </c>
       <c r="W2" t="n">
-        <v>1656930</v>
+        <v>9672300.258374849</v>
       </c>
       <c r="X2" t="n">
-        <v>35053100</v>
+        <v>231658078.200717</v>
       </c>
       <c r="Y2" t="n">
-        <v>128106</v>
+        <v>4081484.20778629</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10758039.6333179</v>
+        <v>37551308.4822837</v>
       </c>
       <c r="C3" t="n">
-        <v>3694276.00256066</v>
+        <v>59158608.626622</v>
       </c>
       <c r="D3" t="n">
-        <v>22862989.6297203</v>
+        <v>10930661.3780837</v>
       </c>
       <c r="E3" t="n">
-        <v>10542466.2139358</v>
+        <v>60657770.6790498</v>
       </c>
       <c r="F3" t="n">
-        <v>215384929.216751</v>
+        <v>1018078095.9621</v>
       </c>
       <c r="G3" t="n">
-        <v>38985989.7558415</v>
+        <v>224617184.653968</v>
       </c>
       <c r="H3" t="n">
-        <v>7021012.30719166</v>
+        <v>16459284.575153</v>
       </c>
       <c r="I3" t="n">
-        <v>65941888.0785277</v>
+        <v>368047775.785565</v>
       </c>
       <c r="J3" t="n">
-        <v>281326817.295279</v>
+        <v>1386125871.74766</v>
       </c>
       <c r="K3" t="n">
-        <v>338610.20883726</v>
+        <v>37351140.5662475</v>
       </c>
       <c r="L3" t="n">
-        <v>2848850.50629876</v>
+        <v>51214681.1687217</v>
       </c>
       <c r="M3" t="n">
-        <v>17086035.5091958</v>
+        <v>75756625.38772219</v>
       </c>
       <c r="N3" t="n">
-        <v>14944249.3458905</v>
+        <v>9480709.43476137</v>
       </c>
       <c r="O3" t="n">
-        <v>14037234.2224799</v>
+        <v>33897366.3190997</v>
       </c>
       <c r="P3" t="n">
-        <v>25951714.1782465</v>
+        <v>70611047.66197561</v>
       </c>
       <c r="Q3" t="n">
-        <v>7156191.88787088</v>
+        <v>17582464.6878574</v>
       </c>
       <c r="R3" t="n">
-        <v>4167502.61578615</v>
+        <v>18970095.12772</v>
       </c>
       <c r="S3" t="n">
-        <v>1058879.01763991</v>
+        <v>6077883.0178412</v>
       </c>
       <c r="T3" t="n">
-        <v>12759813.2164359</v>
+        <v>59053650.8006308</v>
       </c>
       <c r="U3" t="n">
-        <v>7025824.10906512</v>
+        <v>8118007.11819658</v>
       </c>
       <c r="V3" t="n">
-        <v>46912747.0302985</v>
+        <v>276971686.555951</v>
       </c>
       <c r="W3" t="n">
-        <v>2350743.02400267</v>
+        <v>38561060.3495156</v>
       </c>
       <c r="X3" t="n">
-        <v>30577593.0431659</v>
+        <v>269633355.953596</v>
       </c>
       <c r="Y3" t="n">
-        <v>246055.837497214</v>
+        <v>3471279.20266374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13450631.6894749</v>
+        <v>59872402.4751835</v>
       </c>
       <c r="C4" t="n">
-        <v>5642350.40808196</v>
+        <v>114010288.326587</v>
       </c>
       <c r="D4" t="n">
-        <v>30299715.919134</v>
+        <v>18440302.0754972</v>
       </c>
       <c r="E4" t="n">
-        <v>14228764.8712125</v>
+        <v>94525645.4059089</v>
       </c>
       <c r="F4" t="n">
-        <v>316806564.392014</v>
+        <v>1553678764.45374</v>
       </c>
       <c r="G4" t="n">
-        <v>55513033.0313862</v>
+        <v>290762918.316833</v>
       </c>
       <c r="H4" t="n">
-        <v>5799119.06262331</v>
+        <v>16245971.4029048</v>
       </c>
       <c r="I4" t="n">
-        <v>108837002.025014</v>
+        <v>465358447</v>
       </c>
       <c r="J4" t="n">
-        <v>425643566.417028</v>
+        <v>2019037211.45374</v>
       </c>
       <c r="K4" t="n">
-        <v>584344.8134093221</v>
+        <v>64783220.3173617</v>
       </c>
       <c r="L4" t="n">
-        <v>14311168.9629378</v>
+        <v>65956869.7677399</v>
       </c>
       <c r="M4" t="n">
-        <v>33213680.968067</v>
+        <v>92392687.5125224</v>
       </c>
       <c r="N4" t="n">
-        <v>7693462.62326663</v>
+        <v>21324376.2038038</v>
       </c>
       <c r="O4" t="n">
-        <v>16211825.4918116</v>
+        <v>66787250.8138156</v>
       </c>
       <c r="P4" t="n">
-        <v>26832446.2924887</v>
+        <v>115835382.254172</v>
       </c>
       <c r="Q4" t="n">
-        <v>7908113.53204751</v>
+        <v>20793824.1553888</v>
       </c>
       <c r="R4" t="n">
-        <v>6284667.55428378</v>
+        <v>25625670.6681189</v>
       </c>
       <c r="S4" t="n">
-        <v>1457072.77941272</v>
+        <v>13251785.5598051</v>
       </c>
       <c r="T4" t="n">
-        <v>32238662.9263861</v>
+        <v>118055085.255695</v>
       </c>
       <c r="U4" t="n">
-        <v>8601616.89530842</v>
+        <v>12652938.7734333</v>
       </c>
       <c r="V4" t="n">
-        <v>64124292.8312259</v>
+        <v>334453871.665142</v>
       </c>
       <c r="W4" t="n">
-        <v>2254992.82816079</v>
+        <v>72817447.7919433</v>
       </c>
       <c r="X4" t="n">
-        <v>78650558.00104269</v>
+        <v>392627449.218288</v>
       </c>
       <c r="Y4" t="n">
-        <v>343044.935266109</v>
+        <v>7821823.49359589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13904691.8152511</v>
+        <v>3180423.13804475</v>
       </c>
       <c r="C5" t="n">
-        <v>9224372.73669648</v>
+        <v>69574676.812158</v>
       </c>
       <c r="D5" t="n">
-        <v>2593001.10837489</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24548183.3702998</v>
-      </c>
+        <v>18961515.0810735</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>482082839.301059</v>
+        <v>1734869090.63809</v>
       </c>
       <c r="G5" t="n">
-        <v>74053206.6331806</v>
+        <v>342117996.180964</v>
       </c>
       <c r="H5" t="n">
-        <v>7756881.38507641</v>
+        <v>19576935.9924164</v>
       </c>
       <c r="I5" t="n">
-        <v>145134512.806722</v>
+        <v>552990182.872197</v>
       </c>
       <c r="J5" t="n">
-        <v>627217352.10778</v>
+        <v>2287859273.51028</v>
       </c>
       <c r="K5" t="n">
-        <v>5980359.82342305</v>
+        <v>73070274.3546499</v>
       </c>
       <c r="L5" t="n">
-        <v>18003673.4520691</v>
+        <v>80734880.1790148</v>
       </c>
       <c r="M5" t="n">
-        <v>45320751.3363957</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2543785.97830918</v>
-      </c>
-      <c r="O5" t="n">
-        <v>20227283.3053985</v>
-      </c>
+        <v>110560370.519802</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>51277918.5667471</v>
+        <v>115327589.899962</v>
       </c>
       <c r="Q5" t="n">
-        <v>12737888.1574164</v>
+        <v>134528832.287122</v>
       </c>
       <c r="R5" t="n">
-        <v>8504585.95233082</v>
+        <v>30838601.1217721</v>
       </c>
       <c r="S5" t="n">
-        <v>2681494.93203315</v>
-      </c>
-      <c r="T5" t="n">
-        <v>56767661.8298832</v>
-      </c>
+        <v>3118310.93379703</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>8916077.546003919</v>
+        <v>19148450.0732291</v>
       </c>
       <c r="V5" t="n">
-        <v>120884581.829736</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5491396.11625543</v>
-      </c>
+        <v>351705548.579568</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>133350743.683167</v>
+        <v>404197757.106223</v>
       </c>
       <c r="Y5" t="n">
-        <v>2448812.54973212</v>
+        <v>4864930.13859972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22934994.044592</v>
+        <v>3882686.3362354</v>
       </c>
       <c r="C6" t="n">
-        <v>16053633.9021954</v>
+        <v>92483586.5525257</v>
       </c>
       <c r="D6" t="n">
-        <v>4491813.54694642</v>
-      </c>
-      <c r="E6" t="n">
-        <v>31538133.6945812</v>
-      </c>
+        <v>18834171.9565458</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>756823212.157716</v>
+        <v>2140212041.66986</v>
       </c>
       <c r="G6" t="n">
-        <v>151844890.653032</v>
+        <v>469645429.010662</v>
       </c>
       <c r="H6" t="n">
-        <v>14751878.8619778</v>
+        <v>27714363.6799585</v>
       </c>
       <c r="I6" t="n">
-        <v>266609795.559901</v>
+        <v>720092939.74483</v>
       </c>
       <c r="J6" t="n">
-        <v>1023433007.71762</v>
+        <v>2860304981.41469</v>
       </c>
       <c r="K6" t="n">
-        <v>10844130.1778455</v>
+        <v>102777626.861809</v>
       </c>
       <c r="L6" t="n">
-        <v>42168531.9671957</v>
+        <v>98116385.5968287</v>
       </c>
       <c r="M6" t="n">
-        <v>57844494.0776953</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4280138.97227985</v>
-      </c>
-      <c r="O6" t="n">
-        <v>35376183.7836465</v>
-      </c>
+        <v>124616761.457381</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>77858188.9679212</v>
+        <v>148161520.964113</v>
       </c>
       <c r="Q6" t="n">
-        <v>13179332.3539326</v>
+        <v>149236826.284682</v>
       </c>
       <c r="R6" t="n">
-        <v>8001980.61739074</v>
+        <v>44723700.2182214</v>
       </c>
       <c r="S6" t="n">
-        <v>4754123.86503302</v>
-      </c>
-      <c r="T6" t="n">
-        <v>110266584.560974</v>
-      </c>
+        <v>4541077.50017254</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>11139108.9020926</v>
+        <v>24957061.7254341</v>
       </c>
       <c r="V6" t="n">
-        <v>160693002.101407</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9672300.258374849</v>
-      </c>
+        <v>421579755.91393</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>231658078.200717</v>
+        <v>454627661.348882</v>
       </c>
       <c r="Y6" t="n">
-        <v>4081484.20778629</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>37551308.4822837</v>
-      </c>
-      <c r="C7" t="n">
-        <v>59158608.626622</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10930661.3780837</v>
-      </c>
-      <c r="E7" t="n">
-        <v>60657770.6790498</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1018078095.9621</v>
-      </c>
-      <c r="G7" t="n">
-        <v>224617184.653968</v>
-      </c>
-      <c r="H7" t="n">
-        <v>16459284.575153</v>
-      </c>
-      <c r="I7" t="n">
-        <v>368047775.785565</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1386125871.74766</v>
-      </c>
-      <c r="K7" t="n">
-        <v>37351140.5662475</v>
-      </c>
-      <c r="L7" t="n">
-        <v>51214681.1687217</v>
-      </c>
-      <c r="M7" t="n">
-        <v>75756625.38772219</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9480709.43476137</v>
-      </c>
-      <c r="O7" t="n">
-        <v>33897366.3190997</v>
-      </c>
-      <c r="P7" t="n">
-        <v>70611047.66197561</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>17582464.6878574</v>
-      </c>
-      <c r="R7" t="n">
-        <v>18970095.12772</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6077883.0178412</v>
-      </c>
-      <c r="T7" t="n">
-        <v>59053650.8006308</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8118007.11819658</v>
-      </c>
-      <c r="V7" t="n">
-        <v>276971686.555951</v>
-      </c>
-      <c r="W7" t="n">
-        <v>38561060.3495156</v>
-      </c>
-      <c r="X7" t="n">
-        <v>269633355.953596</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3471279.20266374</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>59872402.4751835</v>
-      </c>
-      <c r="C8" t="n">
-        <v>114010288.326587</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18440302.0754972</v>
-      </c>
-      <c r="E8" t="n">
-        <v>94525645.4059089</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1553678764.45374</v>
-      </c>
-      <c r="G8" t="n">
-        <v>290762918.316833</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16245971.4029048</v>
-      </c>
-      <c r="I8" t="n">
-        <v>465358447</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2019037211.45374</v>
-      </c>
-      <c r="K8" t="n">
-        <v>64783220.3173617</v>
-      </c>
-      <c r="L8" t="n">
-        <v>65956869.7677399</v>
-      </c>
-      <c r="M8" t="n">
-        <v>92392687.5125224</v>
-      </c>
-      <c r="N8" t="n">
-        <v>21324376.2038038</v>
-      </c>
-      <c r="O8" t="n">
-        <v>66787250.8138156</v>
-      </c>
-      <c r="P8" t="n">
-        <v>115835382.254172</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>20793824.1553888</v>
-      </c>
-      <c r="R8" t="n">
-        <v>25625670.6681189</v>
-      </c>
-      <c r="S8" t="n">
-        <v>13251785.5598051</v>
-      </c>
-      <c r="T8" t="n">
-        <v>118055085.255695</v>
-      </c>
-      <c r="U8" t="n">
-        <v>12652938.7734333</v>
-      </c>
-      <c r="V8" t="n">
-        <v>334453871.665142</v>
-      </c>
-      <c r="W8" t="n">
-        <v>72817447.7919433</v>
-      </c>
-      <c r="X8" t="n">
-        <v>392627449.218288</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>7821823.49359589</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3180423.13804475</v>
-      </c>
-      <c r="C9" t="n">
-        <v>69574676.812158</v>
-      </c>
-      <c r="D9" t="n">
-        <v>18961515.0810735</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1734869090.63809</v>
-      </c>
-      <c r="G9" t="n">
-        <v>342117996.180964</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19576935.9924164</v>
-      </c>
-      <c r="I9" t="n">
-        <v>552990182.872197</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2287859273.51028</v>
-      </c>
-      <c r="K9" t="n">
-        <v>73070274.3546499</v>
-      </c>
-      <c r="L9" t="n">
-        <v>80734880.1790148</v>
-      </c>
-      <c r="M9" t="n">
-        <v>110560370.519802</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>115327589.899962</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>134528832.287122</v>
-      </c>
-      <c r="R9" t="n">
-        <v>30838601.1217721</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3118310.93379703</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>19148450.0732291</v>
-      </c>
-      <c r="V9" t="n">
-        <v>351705548.579568</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>404197757.106223</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4864930.13859972</v>
+        <v>5743107.42656011</v>
       </c>
     </row>
   </sheetData>
